--- a/bh3/552848658500528287_2021-07-29_19-35-09.xlsx
+++ b/bh3/552848658500528287_2021-07-29_19-35-09.xlsx
@@ -1339,7 +1339,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10717,7 +10717,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">

--- a/bh3/552848658500528287_2021-07-29_19-35-09.xlsx
+++ b/bh3/552848658500528287_2021-07-29_19-35-09.xlsx
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>

--- a/bh3/552848658500528287_2021-07-29_19-35-09.xlsx
+++ b/bh3/552848658500528287_2021-07-29_19-35-09.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5021722672</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-12 07:49:05</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44420.32575231481</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>5066477643</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-04 10:16:02</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44412.42780092593</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -685,10 +697,8 @@
           <t>5021637292</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-01 23:10:05</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44409.96533564815</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -757,10 +767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:20:27</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44409.80586805556</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -828,10 +836,8 @@
           <t>5021628682</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:29:49</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44407.68737268518</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -903,10 +909,8 @@
           <t>5021745032</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:55:46</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44407.37206018518</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -982,10 +986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-30 07:22:56</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44407.3075925926</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1049,10 +1051,8 @@
           <t>5024200962</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:14:13</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44407.05153935185</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1124,10 +1124,8 @@
           <t>5024183924</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:12:28</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44407.05032407407</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1199,10 +1197,8 @@
           <t>5024179946</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:12:11</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44407.05012731482</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1274,10 +1270,8 @@
           <t>5021637292</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:51:40</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44407.03587962963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1341,10 +1335,8 @@
           <t>5021719877</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:25:38</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44406.97613425926</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1408,10 +1400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:19:00</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44406.97152777778</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1475,10 +1465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:18:47</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44406.97137731482</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1541,10 +1529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:18:39</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44406.97128472223</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1608,10 +1594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:18:36</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44406.97125</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1671,10 +1655,8 @@
           <t>5023200088</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:54:58</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44406.95483796296</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1742,10 +1724,8 @@
           <t>5023148073</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:49:41</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44406.95116898148</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1813,10 +1793,8 @@
           <t>5021610275</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:43:05</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44406.94658564815</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1884,10 +1862,8 @@
           <t>5023002655</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:33:30</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44406.93993055556</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1959,10 +1935,8 @@
           <t>5021610275</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:31:03</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44406.93822916667</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2034,10 +2008,8 @@
           <t>5021628682</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:51:39</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44406.91086805556</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2109,10 +2081,8 @@
           <t>5022616341</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:50:57</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44406.91038194444</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2180,10 +2150,8 @@
           <t>5022611594</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:50:36</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44406.91013888889</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2251,10 +2219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:39:08</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44406.90217592593</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2318,10 +2284,8 @@
           <t>5021637292</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:35:02</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44406.8993287037</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2389,10 +2353,8 @@
           <t>5022420291</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:28:35</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44406.89484953704</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2464,10 +2426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:23:48</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44406.89152777778</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2539,10 +2499,8 @@
           <t>5022380397</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:23:33</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44406.89135416667</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2602,10 +2560,8 @@
           <t>5022158078</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:20:01</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44406.88890046296</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2669,10 +2625,8 @@
           <t>5022331665</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:17:27</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44406.88711805556</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2740,10 +2694,8 @@
           <t>5022158078</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:57:24</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44406.87319444444</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2815,10 +2767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:46:53</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44406.86589120371</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2890,10 +2840,8 @@
           <t>5022010185</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:51</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44406.85961805555</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2961,10 +2909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:38</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44406.85946759259</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3032,10 +2978,8 @@
           <t>5021722672</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:36:43</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44406.85883101852</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3111,10 +3055,8 @@
           <t>5021637292</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:35:38</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44406.85807870371</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3186,10 +3128,8 @@
           <t>5021933389</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:29:02</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44406.85349537037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3257,10 +3197,8 @@
           <t>5021930523</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:27:56</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44406.85273148148</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
@@ -3328,10 +3266,8 @@
           <t>5021637292</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:44</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44406.85189814815</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3399,10 +3335,8 @@
           <t>5021912107</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:36</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44406.85180555555</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3470,10 +3404,8 @@
           <t>5021610275</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:30</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44406.85173611111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3548,10 +3480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:56</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44406.84995370371</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3619,10 +3549,8 @@
           <t>5021604448</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:42</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44406.84979166667</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3694,10 +3622,8 @@
           <t>5021722672</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:22:41</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44406.84908564815</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3769,10 +3695,8 @@
           <t>5021604448</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:19</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44406.84744212963</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3848,10 +3772,8 @@
           <t>5021865636</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:09</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44406.84732638889</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3927,10 +3849,8 @@
           <t>5021544392</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:19:31</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44406.84688657407</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4002,10 +3922,8 @@
           <t>5021851818</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:18:49</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44406.84640046296</v>
       </c>
       <c r="I50" t="n">
         <v>5</v>
@@ -4081,10 +3999,8 @@
           <t>5021798768</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:17:17</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44406.84533564815</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4148,10 +4064,8 @@
           <t>5021719877</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:44</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44406.8449537037</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
@@ -4215,10 +4129,8 @@
           <t>5021722672</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:45</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44406.84357638889</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4286,10 +4198,8 @@
           <t>5021804989</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:39</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44406.8428125</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4353,10 +4263,8 @@
           <t>5021576079</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:14</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44406.84252314815</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4424,10 +4332,8 @@
           <t>5021798768</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:12:30</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44406.84201388889</v>
       </c>
       <c r="I56" t="n">
         <v>6</v>
@@ -4499,10 +4405,8 @@
           <t>5021797553</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:12:05</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44406.84172453704</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4570,10 +4474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:30</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44406.83784722222</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4641,10 +4543,8 @@
           <t>5021745032</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:14</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44406.83696759259</v>
       </c>
       <c r="I59" t="n">
         <v>4</v>
@@ -4712,10 +4612,8 @@
           <t>5021728954</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:08</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44406.8362037037</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4783,10 +4681,8 @@
           <t>5021724689</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:51</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44406.83600694445</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4862,10 +4758,8 @@
           <t>5021719877</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:24</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44406.83569444445</v>
       </c>
       <c r="I62" t="n">
         <v>36</v>
@@ -4941,10 +4835,8 @@
           <t>5021610275</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:17</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44406.83561342592</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5020,10 +4912,8 @@
           <t>5021722672</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:05</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44406.83547453704</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5099,10 +4989,8 @@
           <t>5021610275</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:50</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44406.83530092592</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5178,10 +5066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:14</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44406.83488425926</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5245,10 +5131,8 @@
           <t>5021628682</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:44</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44406.83384259259</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5320,10 +5204,8 @@
           <t>5021654573</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:03</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44406.83336805556</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5395,10 +5277,8 @@
           <t>5021610275</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:59</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44406.83332175926</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5466,10 +5346,8 @@
           <t>5021604915</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:05</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44406.83269675926</v>
       </c>
       <c r="I70" t="n">
         <v>5</v>
@@ -5541,10 +5419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:27</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44406.8315625</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5616,10 +5492,8 @@
           <t>5021671719</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:57</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44406.83121527778</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5695,10 +5569,8 @@
           <t>5021576079</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:14</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44406.83071759259</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5774,10 +5646,8 @@
           <t>5021654573</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:07</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44406.83063657407</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5853,10 +5723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:36</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44406.83027777778</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5932,10 +5800,8 @@
           <t>5021657272</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:23</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44406.83012731482</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -5999,10 +5865,8 @@
           <t>5021626602</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:55</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44406.82980324074</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6078,10 +5942,8 @@
           <t>5021515669</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:37</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44406.82959490741</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6149,10 +6011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:48</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44406.82902777778</v>
       </c>
       <c r="I79" t="n">
         <v>107</v>
@@ -6216,10 +6076,8 @@
           <t>5021637292</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:25</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44406.82876157408</v>
       </c>
       <c r="I80" t="n">
         <v>24</v>
@@ -6291,10 +6149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:52:47</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44406.82832175926</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6362,10 +6218,8 @@
           <t>5021628682</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:52:06</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44406.82784722222</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -6429,10 +6283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:52:01</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44406.82778935185</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6500,10 +6352,8 @@
           <t>5021604448</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:51:50</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44406.82766203704</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6575,10 +6425,8 @@
           <t>5021610275</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:51:21</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44406.82732638889</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -6650,10 +6498,8 @@
           <t>5021626602</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:51:18</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44406.82729166667</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6721,10 +6567,8 @@
           <t>5021604448</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:58</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44406.82706018518</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6800,10 +6644,8 @@
           <t>5021618719</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:53</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44406.82700231481</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6875,10 +6717,8 @@
           <t>5021604448</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:36</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44406.82680555555</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6950,10 +6790,8 @@
           <t>5021604915</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:20</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44406.82662037037</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7017,10 +6855,8 @@
           <t>5021576079</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:06</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44406.82645833334</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7096,10 +6932,8 @@
           <t>5021616129</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:03</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44406.82642361111</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7175,10 +7009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:00</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44406.82638888889</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7254,10 +7086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:55</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44406.82633101852</v>
       </c>
       <c r="I94" t="n">
         <v>36</v>
@@ -7333,10 +7163,8 @@
           <t>5021608218</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:52</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44406.8262962963</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7400,10 +7228,8 @@
           <t>5021612230</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:50</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44406.82627314814</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7467,10 +7293,8 @@
           <t>5021612230</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:43</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44406.82619212963</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7546,10 +7370,8 @@
           <t>5021604915</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:38</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44406.82613425926</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7621,10 +7443,8 @@
           <t>5021611886</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:36</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44406.82611111111</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7688,10 +7508,8 @@
           <t>5021607192</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:29</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44406.82603009259</v>
       </c>
       <c r="I100" t="n">
         <v>2</v>
@@ -7759,10 +7577,8 @@
           <t>5021604448</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:28</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44406.82601851852</v>
       </c>
       <c r="I101" t="n">
         <v>10</v>
@@ -7838,10 +7654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:17</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44406.82589120371</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7913,10 +7727,8 @@
           <t>5021610275</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:01</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44406.82570601852</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7993,10 +7805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:34</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44406.82539351852</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8060,10 +7870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:21</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44406.82524305556</v>
       </c>
       <c r="I105" t="n">
         <v>10</v>
@@ -8135,10 +7943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:07</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44406.82508101852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8206,10 +8012,8 @@
           <t>5021576079</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:53</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44406.82491898148</v>
       </c>
       <c r="I107" t="n">
         <v>4</v>
@@ -8273,10 +8077,8 @@
           <t>5021576079</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:50</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44406.82488425926</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8352,10 +8154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:41</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44406.82478009259</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8423,10 +8223,8 @@
           <t>5021591831</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:25</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44406.8245949074</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8498,10 +8296,8 @@
           <t>5021579789</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:38</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44406.82405092593</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8577,10 +8373,8 @@
           <t>5021585003</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:15</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44406.82378472222</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8652,10 +8446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:10</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44406.82372685185</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8719,10 +8511,8 @@
           <t>5021576079</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:13</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44406.82306712963</v>
       </c>
       <c r="I114" t="n">
         <v>43</v>
@@ -8798,10 +8588,8 @@
           <t>5021549531</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:03</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44406.82295138889</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8877,10 +8665,8 @@
           <t>5021575562</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:01</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44406.82292824074</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8952,10 +8738,8 @@
           <t>5021549531</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:44:29</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44406.82255787037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9031,10 +8815,8 @@
           <t>5021564503</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:44:25</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44406.82251157407</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9111,10 +8893,8 @@
           <t>5021558904</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:44:22</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44406.82247685185</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9186,10 +8966,8 @@
           <t>5021564224</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:44:18</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44406.82243055556</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9253,10 +9031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:44:01</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44406.82223379629</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9332,10 +9108,8 @@
           <t>5021566738</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:43:59</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44406.82221064815</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9403,10 +9177,8 @@
           <t>5021549531</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:43:48</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44406.82208333333</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9478,10 +9250,8 @@
           <t>5021554598</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:43:10</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44406.82164351852</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9545,10 +9315,8 @@
           <t>5021514197</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:43:08</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44406.82162037037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9620,10 +9388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:43:05</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44406.82158564815</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9699,10 +9465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:59</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44406.8215162037</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9778,10 +9542,8 @@
           <t>5021549531</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:45</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44406.82135416667</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9857,10 +9619,8 @@
           <t>5021514197</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:42</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44406.82131944445</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9924,10 +9684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:40</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44406.82129629629</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9999,10 +9757,8 @@
           <t>5021544392</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:39</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44406.82128472222</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10078,10 +9834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:36</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44406.82125</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10157,10 +9911,8 @@
           <t>5021514197</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:33</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44406.82121527778</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10236,10 +9988,8 @@
           <t>5021514197</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:33</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44406.82121527778</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10303,10 +10053,8 @@
           <t>5021552821</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:30</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44406.82118055555</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10382,10 +10130,8 @@
           <t>5021548667</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:28</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44406.82115740741</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10461,10 +10207,8 @@
           <t>5021552474</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:22</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44406.82108796296</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -10540,10 +10284,8 @@
           <t>5021552407</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:21</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44406.82107638889</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10619,10 +10361,8 @@
           <t>5021547989</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:13</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44406.82098379629</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10698,10 +10438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:12</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44406.82097222222</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10777,10 +10515,8 @@
           <t>5021514197</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:42:10</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44406.82094907408</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10857,10 +10593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:41:53</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44406.82075231482</v>
       </c>
       <c r="I142" t="n">
         <v>307</v>
@@ -10937,10 +10671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:41:46</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44406.82067129629</v>
       </c>
       <c r="I143" t="n">
         <v>19</v>
@@ -11012,10 +10744,8 @@
           <t>5021539805</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:41:23</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44406.82040509259</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -11091,10 +10821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:54</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44406.82006944445</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11166,10 +10894,8 @@
           <t>5021517671</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:49</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44406.82001157408</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11245,10 +10971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:38</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44406.81988425926</v>
       </c>
       <c r="I147" t="n">
         <v>4</v>
@@ -11324,10 +11048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:37</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44406.81987268518</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11395,10 +11117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:35</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44406.81984953704</v>
       </c>
       <c r="I149" t="n">
         <v>67</v>
@@ -11474,10 +11194,8 @@
           <t>5021537424</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44406.81980324074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11545,10 +11263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:29</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44406.81978009259</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11630,10 +11346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:25</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44406.8197337963</v>
       </c>
       <c r="I152" t="n">
         <v>4</v>
@@ -11707,10 +11421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:22</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44406.81969907408</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -11778,10 +11490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:11</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44406.81957175926</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11845,10 +11555,8 @@
           <t>5021531475</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:40:01</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44406.81945601852</v>
       </c>
       <c r="I155" t="n">
         <v>4</v>
@@ -11916,10 +11624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:39:58</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44406.8194212963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11991,10 +11697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:39:33</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44406.81913194444</v>
       </c>
       <c r="I157" t="n">
         <v>18</v>
@@ -12066,10 +11770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:39:30</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44406.81909722222</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -12178,10 +11880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:39:28</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44406.81907407408</v>
       </c>
       <c r="I159" t="n">
         <v>4</v>
@@ -12245,10 +11945,8 @@
           <t>5021518584</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:39:09</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44406.81885416667</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12320,10 +12018,8 @@
           <t>5021523124</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:56</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44406.81870370371</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12395,10 +12091,8 @@
           <t>5021523071</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:55</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44406.81869212963</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12462,10 +12156,8 @@
           <t>5021517671</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:50</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44406.81863425926</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12529,10 +12221,8 @@
           <t>5021517681</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:50</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44406.81863425926</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12608,10 +12298,8 @@
           <t>5021514197</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:48</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44406.81861111111</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12675,10 +12363,8 @@
           <t>5021513682</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:38</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44406.81849537037</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12742,10 +12428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:26</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44406.81835648148</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12809,10 +12493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:11</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44406.81818287037</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12872,10 +12554,8 @@
           <t>5021515669</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:07</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44406.81813657407</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12939,10 +12619,8 @@
           <t>5021515662</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:07</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44406.81813657407</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13006,10 +12684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:06</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44406.818125</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13086,10 +12762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:04</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44406.81810185185</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13165,10 +12839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:01</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44406.81806712963</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13232,10 +12904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:37:52</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44406.81796296296</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13299,10 +12969,8 @@
           <t>5021511243</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:37:46</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44406.81789351852</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13366,10 +13034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:37:37</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44406.81778935185</v>
       </c>
       <c r="I176" t="n">
         <v>16</v>
@@ -13445,10 +13111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:37:31</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44406.81771990741</v>
       </c>
       <c r="I177" t="n">
         <v>5</v>
@@ -13520,10 +13184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:37:17</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44406.81755787037</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13599,10 +13261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:37:17</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44406.81755787037</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13674,10 +13334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:37:09</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44406.81746527777</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13745,10 +13403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:37:07</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44406.81744212963</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13816,10 +13472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:37:05</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44406.81741898148</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13887,10 +13541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:37:01</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44406.81737268518</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13954,10 +13606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:55</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44406.81730324074</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14025,10 +13675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:48</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44406.81722222222</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14088,10 +13736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:48</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44406.81722222222</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14163,10 +13809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:43</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44406.81716435185</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14238,10 +13882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:41</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44406.8171412037</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14313,10 +13955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:37</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44406.8170949074</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14380,10 +14020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:33</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44406.81704861111</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14459,10 +14097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:28</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44406.81699074074</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14539,10 +14175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:12</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44406.81680555556</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14610,10 +14244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:10</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44406.8167824074</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14685,10 +14317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:06</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44406.81673611111</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14752,10 +14382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:01</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44406.81667824074</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14831,10 +14459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:00</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44406.81666666667</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14902,10 +14528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:00</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44406.81666666667</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14977,10 +14601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:00</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44406.81666666667</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -15052,10 +14674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:55</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44406.8166087963</v>
       </c>
       <c r="I199" t="n">
         <v>50</v>
@@ -15119,10 +14739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:50</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44406.81655092593</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15187,10 +14805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:49</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44406.81653935185</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15258,10 +14874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:46</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44406.81650462963</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15333,10 +14947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:45</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44406.81649305556</v>
       </c>
       <c r="I203" t="n">
         <v>33</v>
@@ -15404,10 +15016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:44</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44406.81648148148</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15479,10 +15089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:41</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44406.81644675926</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15546,10 +15154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:39</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44406.81642361111</v>
       </c>
       <c r="I206" t="n">
         <v>35</v>
@@ -15617,10 +15223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:22</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44406.81622685185</v>
       </c>
       <c r="I207" t="n">
         <v>4</v>
